--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pdgfa-Pdgfra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pdgfa-Pdgfra.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.85965566666667</v>
+        <v>4.882566666666666</v>
       </c>
       <c r="H2">
-        <v>53.578967</v>
+        <v>14.6477</v>
       </c>
       <c r="I2">
-        <v>0.4399433554208643</v>
+        <v>0.1179541876619502</v>
       </c>
       <c r="J2">
-        <v>0.4399433554208643</v>
+        <v>0.1179541876619503</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.535386</v>
+        <v>0.667106</v>
       </c>
       <c r="N2">
-        <v>10.606158</v>
+        <v>2.001318</v>
       </c>
       <c r="O2">
-        <v>0.01988747852527457</v>
+        <v>0.003817114239487378</v>
       </c>
       <c r="P2">
-        <v>0.01988747852527457</v>
+        <v>0.003817114239487378</v>
       </c>
       <c r="Q2">
-        <v>63.140776608754</v>
+        <v>3.257189518733333</v>
       </c>
       <c r="R2">
-        <v>568.2669894787861</v>
+        <v>29.3147056686</v>
       </c>
       <c r="S2">
-        <v>0.008749364033269678</v>
+        <v>0.0004502446093315967</v>
       </c>
       <c r="T2">
-        <v>0.008749364033269676</v>
+        <v>0.0004502446093315967</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.85965566666667</v>
+        <v>4.882566666666666</v>
       </c>
       <c r="H3">
-        <v>53.578967</v>
+        <v>14.6477</v>
       </c>
       <c r="I3">
-        <v>0.4399433554208643</v>
+        <v>0.1179541876619502</v>
       </c>
       <c r="J3">
-        <v>0.4399433554208643</v>
+        <v>0.1179541876619503</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>521.456741</v>
       </c>
       <c r="O3">
-        <v>0.9777772251268709</v>
+        <v>0.9945745510447523</v>
       </c>
       <c r="P3">
-        <v>0.9777772251268707</v>
+        <v>0.9945745510447522</v>
       </c>
       <c r="Q3">
-        <v>3104.345946440727</v>
+        <v>848.6824339050777</v>
       </c>
       <c r="R3">
-        <v>27939.11351796654</v>
+        <v>7638.1419051457</v>
       </c>
       <c r="S3">
-        <v>0.4301665932764174</v>
+        <v>0.1173142332377326</v>
       </c>
       <c r="T3">
-        <v>0.4301665932764174</v>
+        <v>0.1173142332377326</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.85965566666667</v>
+        <v>4.882566666666666</v>
       </c>
       <c r="H4">
-        <v>53.578967</v>
+        <v>14.6477</v>
       </c>
       <c r="I4">
-        <v>0.4399433554208643</v>
+        <v>0.1179541876619502</v>
       </c>
       <c r="J4">
-        <v>0.4399433554208643</v>
+        <v>0.1179541876619503</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.346056</v>
+        <v>0.260372</v>
       </c>
       <c r="N4">
-        <v>1.038168</v>
+        <v>0.7811159999999999</v>
       </c>
       <c r="O4">
-        <v>0.001946656254378565</v>
+        <v>0.001489822709979835</v>
       </c>
       <c r="P4">
-        <v>0.001946656254378564</v>
+        <v>0.001489822709979834</v>
       </c>
       <c r="Q4">
-        <v>6.180441001383999</v>
+        <v>1.271283648133333</v>
       </c>
       <c r="R4">
-        <v>55.62396901245599</v>
+        <v>11.4415528332</v>
       </c>
       <c r="S4">
-        <v>0.0008564184844023173</v>
+        <v>0.0001757308275159967</v>
       </c>
       <c r="T4">
-        <v>0.0008564184844023173</v>
+        <v>0.0001757308275159967</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.85965566666667</v>
+        <v>4.882566666666666</v>
       </c>
       <c r="H5">
-        <v>53.578967</v>
+        <v>14.6477</v>
       </c>
       <c r="I5">
-        <v>0.4399433554208643</v>
+        <v>0.1179541876619502</v>
       </c>
       <c r="J5">
-        <v>0.4399433554208643</v>
+        <v>0.1179541876619503</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.06908833333333335</v>
+        <v>0.020712</v>
       </c>
       <c r="N5">
-        <v>0.207265</v>
+        <v>0.062136</v>
       </c>
       <c r="O5">
-        <v>0.0003886400934759821</v>
+        <v>0.0001185120057805845</v>
       </c>
       <c r="P5">
-        <v>0.0003886400934759819</v>
+        <v>0.0001185120057805844</v>
       </c>
       <c r="Q5">
-        <v>1.233893843917222</v>
+        <v>0.1011277208</v>
       </c>
       <c r="R5">
-        <v>11.105044595255</v>
+        <v>0.9101494872</v>
       </c>
       <c r="S5">
-        <v>0.0001709796267749019</v>
+        <v>1.397898737003719E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001709796267749019</v>
+        <v>1.397898737003719E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>6.575248999999999</v>
       </c>
       <c r="I6">
-        <v>0.05399016199374808</v>
+        <v>0.0529488011407969</v>
       </c>
       <c r="J6">
-        <v>0.05399016199374809</v>
+        <v>0.0529488011407969</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.535386</v>
+        <v>0.667106</v>
       </c>
       <c r="N6">
-        <v>10.606158</v>
+        <v>2.001318</v>
       </c>
       <c r="O6">
-        <v>0.01988747852527457</v>
+        <v>0.003817114239487378</v>
       </c>
       <c r="P6">
-        <v>0.01988747852527457</v>
+        <v>0.003817114239487378</v>
       </c>
       <c r="Q6">
-        <v>7.748681087038</v>
+        <v>1.462129353131333</v>
       </c>
       <c r="R6">
-        <v>69.738129783342</v>
+        <v>13.159164178182</v>
       </c>
       <c r="S6">
-        <v>0.00107372818722676</v>
+        <v>0.0002021116227983214</v>
       </c>
       <c r="T6">
-        <v>0.00107372818722676</v>
+        <v>0.0002021116227983213</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>6.575248999999999</v>
       </c>
       <c r="I7">
-        <v>0.05399016199374808</v>
+        <v>0.0529488011407969</v>
       </c>
       <c r="J7">
-        <v>0.05399016199374809</v>
+        <v>0.0529488011407969</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>521.456741</v>
       </c>
       <c r="O7">
-        <v>0.9777772251268709</v>
+        <v>0.9945745510447523</v>
       </c>
       <c r="P7">
-        <v>0.9777772251268707</v>
+        <v>0.9945745510447522</v>
       </c>
       <c r="Q7">
         <v>380.9675460892787</v>
@@ -883,10 +883,10 @@
         <v>3428.707914803509</v>
       </c>
       <c r="S7">
-        <v>0.05279035077839725</v>
+        <v>0.05266153012296595</v>
       </c>
       <c r="T7">
-        <v>0.05279035077839724</v>
+        <v>0.05266153012296594</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,40 +915,40 @@
         <v>6.575248999999999</v>
       </c>
       <c r="I8">
-        <v>0.05399016199374808</v>
+        <v>0.0529488011407969</v>
       </c>
       <c r="J8">
-        <v>0.05399016199374809</v>
+        <v>0.0529488011407969</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.346056</v>
+        <v>0.260372</v>
       </c>
       <c r="N8">
-        <v>1.038168</v>
+        <v>0.7811159999999999</v>
       </c>
       <c r="O8">
-        <v>0.001946656254378565</v>
+        <v>0.001489822709979835</v>
       </c>
       <c r="P8">
-        <v>0.001946656254378564</v>
+        <v>0.001489822709979834</v>
       </c>
       <c r="Q8">
-        <v>0.7584681226479999</v>
+        <v>0.5706702442093333</v>
       </c>
       <c r="R8">
-        <v>6.826213103831999</v>
+        <v>5.136032197883999</v>
       </c>
       <c r="S8">
-        <v>0.0001051002865200416</v>
+        <v>7.88843264057654E-05</v>
       </c>
       <c r="T8">
-        <v>0.0001051002865200416</v>
+        <v>7.888432640576538E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>6.575248999999999</v>
       </c>
       <c r="I9">
-        <v>0.05399016199374808</v>
+        <v>0.0529488011407969</v>
       </c>
       <c r="J9">
-        <v>0.05399016199374809</v>
+        <v>0.0529488011407969</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.06908833333333335</v>
+        <v>0.020712</v>
       </c>
       <c r="N9">
-        <v>0.207265</v>
+        <v>0.062136</v>
       </c>
       <c r="O9">
-        <v>0.0003886400934759821</v>
+        <v>0.0001185120057805845</v>
       </c>
       <c r="P9">
-        <v>0.0003886400934759819</v>
+        <v>0.0001185120057805844</v>
       </c>
       <c r="Q9">
-        <v>0.1514243315538889</v>
+        <v>0.04539551909599999</v>
       </c>
       <c r="R9">
-        <v>1.362818983985</v>
+        <v>0.4085596718639999</v>
       </c>
       <c r="S9">
-        <v>2.098274160403367E-05</v>
+        <v>6.275068626873139E-06</v>
       </c>
       <c r="T9">
-        <v>2.098274160403366E-05</v>
+        <v>6.275068626873138E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.464658</v>
+        <v>25.81983966666667</v>
       </c>
       <c r="H10">
-        <v>40.393974</v>
+        <v>77.459519</v>
       </c>
       <c r="I10">
-        <v>0.3316797888310006</v>
+        <v>0.6237617264369424</v>
       </c>
       <c r="J10">
-        <v>0.3316797888310007</v>
+        <v>0.6237617264369424</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.535386</v>
+        <v>0.667106</v>
       </c>
       <c r="N10">
-        <v>10.606158</v>
+        <v>2.001318</v>
       </c>
       <c r="O10">
-        <v>0.01988747852527457</v>
+        <v>0.003817114239487378</v>
       </c>
       <c r="P10">
-        <v>0.01988747852527457</v>
+        <v>0.003817114239487378</v>
       </c>
       <c r="Q10">
-        <v>47.60276338798801</v>
+        <v>17.22456996067133</v>
       </c>
       <c r="R10">
-        <v>428.424870491892</v>
+        <v>155.021129646042</v>
       </c>
       <c r="S10">
-        <v>0.006596274677644131</v>
+        <v>0.002380969768029683</v>
       </c>
       <c r="T10">
-        <v>0.006596274677644129</v>
+        <v>0.002380969768029683</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.464658</v>
+        <v>25.81983966666667</v>
       </c>
       <c r="H11">
-        <v>40.393974</v>
+        <v>77.459519</v>
       </c>
       <c r="I11">
-        <v>0.3316797888310006</v>
+        <v>0.6237617264369424</v>
       </c>
       <c r="J11">
-        <v>0.3316797888310007</v>
+        <v>0.6237617264369424</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>521.456741</v>
       </c>
       <c r="O11">
-        <v>0.9777772251268709</v>
+        <v>0.9945745510447523</v>
       </c>
       <c r="P11">
-        <v>0.9777772251268707</v>
+        <v>0.9945745510447522</v>
       </c>
       <c r="Q11">
-        <v>2340.412226453192</v>
+        <v>4487.976481907508</v>
       </c>
       <c r="R11">
-        <v>21063.71003807873</v>
+        <v>40391.78833716758</v>
       </c>
       <c r="S11">
-        <v>0.3243089435538423</v>
+        <v>0.6203775390299217</v>
       </c>
       <c r="T11">
-        <v>0.3243089435538423</v>
+        <v>0.6203775390299215</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.464658</v>
+        <v>25.81983966666667</v>
       </c>
       <c r="H12">
-        <v>40.393974</v>
+        <v>77.459519</v>
       </c>
       <c r="I12">
-        <v>0.3316797888310006</v>
+        <v>0.6237617264369424</v>
       </c>
       <c r="J12">
-        <v>0.3316797888310007</v>
+        <v>0.6237617264369424</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.346056</v>
+        <v>0.260372</v>
       </c>
       <c r="N12">
-        <v>1.038168</v>
+        <v>0.7811159999999999</v>
       </c>
       <c r="O12">
-        <v>0.001946656254378565</v>
+        <v>0.001489822709979835</v>
       </c>
       <c r="P12">
-        <v>0.001946656254378564</v>
+        <v>0.001489822709979834</v>
       </c>
       <c r="Q12">
-        <v>4.659525688847999</v>
+        <v>6.722763293689333</v>
       </c>
       <c r="R12">
-        <v>41.935731199632</v>
+        <v>60.504869643204</v>
       </c>
       <c r="S12">
-        <v>0.000645666535378829</v>
+        <v>0.0009292943856619859</v>
       </c>
       <c r="T12">
-        <v>0.000645666535378829</v>
+        <v>0.0009292943856619856</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.464658</v>
+        <v>25.81983966666667</v>
       </c>
       <c r="H13">
-        <v>40.393974</v>
+        <v>77.459519</v>
       </c>
       <c r="I13">
-        <v>0.3316797888310006</v>
+        <v>0.6237617264369424</v>
       </c>
       <c r="J13">
-        <v>0.3316797888310007</v>
+        <v>0.6237617264369424</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.06908833333333335</v>
+        <v>0.020712</v>
       </c>
       <c r="N13">
-        <v>0.207265</v>
+        <v>0.062136</v>
       </c>
       <c r="O13">
-        <v>0.0003886400934759821</v>
+        <v>0.0001185120057805845</v>
       </c>
       <c r="P13">
-        <v>0.0003886400934759819</v>
+        <v>0.0001185120057805844</v>
       </c>
       <c r="Q13">
-        <v>0.9302507801233335</v>
+        <v>0.5347805191759999</v>
       </c>
       <c r="R13">
-        <v>8.372257021110002</v>
+        <v>4.813024672584</v>
       </c>
       <c r="S13">
-        <v>0.0001289040641353741</v>
+        <v>7.392325332920226E-05</v>
       </c>
       <c r="T13">
-        <v>0.0001289040641353741</v>
+        <v>7.392325332920225E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.079289333333333</v>
+        <v>8.499598333333333</v>
       </c>
       <c r="H14">
-        <v>21.237868</v>
+        <v>25.498795</v>
       </c>
       <c r="I14">
-        <v>0.1743866937543869</v>
+        <v>0.2053352847603104</v>
       </c>
       <c r="J14">
-        <v>0.1743866937543869</v>
+        <v>0.2053352847603104</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.535386</v>
+        <v>0.667106</v>
       </c>
       <c r="N14">
-        <v>10.606158</v>
+        <v>2.001318</v>
       </c>
       <c r="O14">
-        <v>0.01988747852527457</v>
+        <v>0.003817114239487378</v>
       </c>
       <c r="P14">
-        <v>0.01988747852527457</v>
+        <v>0.003817114239487378</v>
       </c>
       <c r="Q14">
-        <v>25.028020399016</v>
+        <v>5.670133045756667</v>
       </c>
       <c r="R14">
-        <v>225.252183591144</v>
+        <v>51.03119741181</v>
       </c>
       <c r="S14">
-        <v>0.003468111627134003</v>
+        <v>0.0007837882393277765</v>
       </c>
       <c r="T14">
-        <v>0.003468111627134002</v>
+        <v>0.0007837882393277765</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.079289333333333</v>
+        <v>8.499598333333333</v>
       </c>
       <c r="H15">
-        <v>21.237868</v>
+        <v>25.498795</v>
       </c>
       <c r="I15">
-        <v>0.1743866937543869</v>
+        <v>0.2053352847603104</v>
       </c>
       <c r="J15">
-        <v>0.1743866937543869</v>
+        <v>0.2053352847603104</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>521.456741</v>
       </c>
       <c r="O15">
-        <v>0.9777772251268709</v>
+        <v>0.9945745510447523</v>
       </c>
       <c r="P15">
-        <v>0.9777772251268707</v>
+        <v>0.9945745510447522</v>
       </c>
       <c r="Q15">
-        <v>1230.514381452021</v>
+        <v>1477.39094890301</v>
       </c>
       <c r="R15">
-        <v>11074.62943306819</v>
+        <v>13296.5185401271</v>
       </c>
       <c r="S15">
-        <v>0.1705113375182138</v>
+        <v>0.2042212486541321</v>
       </c>
       <c r="T15">
-        <v>0.1705113375182138</v>
+        <v>0.2042212486541321</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,46 +1405,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.079289333333333</v>
+        <v>8.499598333333333</v>
       </c>
       <c r="H16">
-        <v>21.237868</v>
+        <v>25.498795</v>
       </c>
       <c r="I16">
-        <v>0.1743866937543869</v>
+        <v>0.2053352847603104</v>
       </c>
       <c r="J16">
-        <v>0.1743866937543869</v>
+        <v>0.2053352847603104</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.346056</v>
+        <v>0.260372</v>
       </c>
       <c r="N16">
-        <v>1.038168</v>
+        <v>0.7811159999999999</v>
       </c>
       <c r="O16">
-        <v>0.001946656254378565</v>
+        <v>0.001489822709979835</v>
       </c>
       <c r="P16">
-        <v>0.001946656254378564</v>
+        <v>0.001489822709979834</v>
       </c>
       <c r="Q16">
-        <v>2.449830549536</v>
+        <v>2.213057417246667</v>
       </c>
       <c r="R16">
-        <v>22.048474945824</v>
+        <v>19.91751675522</v>
       </c>
       <c r="S16">
-        <v>0.0003394709480773766</v>
+        <v>0.0003059131703960867</v>
       </c>
       <c r="T16">
-        <v>0.0003394709480773766</v>
+        <v>0.0003059131703960867</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.079289333333333</v>
+        <v>8.499598333333333</v>
       </c>
       <c r="H17">
-        <v>21.237868</v>
+        <v>25.498795</v>
       </c>
       <c r="I17">
-        <v>0.1743866937543869</v>
+        <v>0.2053352847603104</v>
       </c>
       <c r="J17">
-        <v>0.1743866937543869</v>
+        <v>0.2053352847603104</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.06908833333333335</v>
+        <v>0.020712</v>
       </c>
       <c r="N17">
-        <v>0.207265</v>
+        <v>0.062136</v>
       </c>
       <c r="O17">
-        <v>0.0003886400934759821</v>
+        <v>0.0001185120057805845</v>
       </c>
       <c r="P17">
-        <v>0.0003886400934759819</v>
+        <v>0.0001185120057805844</v>
       </c>
       <c r="Q17">
-        <v>0.4890963012244445</v>
+        <v>0.17604368068</v>
       </c>
       <c r="R17">
-        <v>4.40186671102</v>
+        <v>1.58439312612</v>
       </c>
       <c r="S17">
-        <v>6.777366096167237E-05</v>
+        <v>2.433469645447186E-05</v>
       </c>
       <c r="T17">
-        <v>6.777366096167236E-05</v>
+        <v>2.433469645447186E-05</v>
       </c>
     </row>
   </sheetData>
